--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekpuri/IdeaProjects/douglas/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FA4DE5-025F-1F40-B1AE-8D50CDD0E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C3118-474C-B84F-B6EE-E7108B339DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="ParfumProductFilterTest" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Produktart</t>
   </si>
@@ -85,13 +85,61 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Criteria (Highlights)</t>
+  </si>
+  <si>
+    <t>Geschenk fur</t>
+  </si>
+  <si>
+    <t>Fur Wen</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Neu</t>
+  </si>
+  <si>
+    <t>Limitiert</t>
+  </si>
+  <si>
+    <t>Duftset</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>Yves Saint Laurent</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Montblanc</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +153,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0669864-6E6B-2345-912E-F4A6FCB81FE4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,41 +544,77 @@
     <col min="1" max="4" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD764C1-91C6-FA41-BE8F-7DA8D9FB1CA7}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +622,7 @@
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -537,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -553,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -561,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -569,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -577,12 +670,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekpuri/IdeaProjects/douglas/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C3118-474C-B84F-B6EE-E7108B339DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A04C100-27A7-AA46-90BE-FD00EC477CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Produktart</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,13 +566,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,16 +591,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD764C1-91C6-FA41-BE8F-7DA8D9FB1CA7}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,6 +746,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekpuri/IdeaProjects/douglas/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A04C100-27A7-AA46-90BE-FD00EC477CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D372C3-893B-1242-841B-2AE8BC792B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Für Wen</t>
   </si>
   <si>
-    <t>Eau de Toilette</t>
-  </si>
-  <si>
     <t>Parfum</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
     <t>Duftset</t>
   </si>
   <si>
+    <t>Nikolaus</t>
+  </si>
+  <si>
     <t>Männlich</t>
   </si>
   <si>
@@ -123,16 +123,16 @@
     <t>Weiblich</t>
   </si>
   <si>
-    <t>Yves Saint Laurent</t>
-  </si>
-  <si>
     <t>Criteria</t>
   </si>
   <si>
     <t>Montblanc</t>
   </si>
   <si>
-    <t>Geburtstag</t>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>Eau de Parfum</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -588,16 +588,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -624,63 +624,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -689,66 +689,66 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekpuri/IdeaProjects/douglas/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D372C3-893B-1242-841B-2AE8BC792B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E02D6-219C-6D4E-91B7-02DA9459DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" xr2:uid="{A448E166-A043-E241-92AD-E81F96619FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="ParfumProductFilterTest" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>Montblanc</t>
   </si>
   <si>
-    <t>Dior</t>
-  </si>
-  <si>
     <t>Eau de Parfum</t>
+  </si>
+  <si>
+    <t>DIOR</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -591,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
